--- a/Output/Output.xlsx
+++ b/Output/Output.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -920,6 +920,321 @@
       </c>
       <c r="C33" t="n">
         <v>0.0009996891021728516</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1648232936859131</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>0.0980219841003418</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>0.09001994132995605</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>0.08822250366210938</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>0.09102058410644531</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>0.09202861785888672</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>0.09502148628234863</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>0.09502387046813965</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>0.09502077102661133</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>0.09202289581298828</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>0.09402203559875488</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1050240993499756</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>0.08801865577697754</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>0.09698867797851562</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>0.09602236747741699</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>0.09702944755554199</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>0.1575415134429932</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>0.1569359302520752</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>poly</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>0.09502482414245605</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Face_recognition</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>0.002000570297241211</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Face_recognition</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>si</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>0.002000570297241211</v>
       </c>
     </row>
   </sheetData>
